--- a/individual_results/avey/216.xlsx
+++ b/individual_results/avey/216.xlsx
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
@@ -711,9 +711,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -766,9 +764,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -817,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1065437321815508</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -832,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3558398982930783</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0.8262346571285599</v>
@@ -1051,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1111,9 +1107,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>1</v>
       </c>
